--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-З_газ/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-З_газ/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D450"/>
+  <dimension ref="A1:D466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6640,6 +6640,182 @@
       </c>
       <c r="D450">
         <v>33.3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>29.8</v>
+      </c>
+      <c r="D451">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>29.9</v>
+      </c>
+      <c r="D452">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>30.7</v>
+      </c>
+      <c r="D453">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>30.8</v>
+      </c>
+      <c r="D454">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>30.7</v>
+      </c>
+      <c r="D455">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>31.2</v>
+      </c>
+      <c r="D456">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>31.4</v>
+      </c>
+      <c r="D457">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>30.4</v>
+      </c>
+      <c r="D458">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>29.5</v>
+      </c>
+      <c r="D459">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>31.5</v>
+      </c>
+      <c r="D460">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>30.6</v>
+      </c>
+      <c r="D461">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>31.2</v>
+      </c>
+      <c r="D462">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>29.3</v>
+      </c>
+      <c r="D463">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>30.4</v>
+      </c>
+      <c r="D464">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>31.2</v>
+      </c>
+      <c r="D465">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>29.7</v>
+      </c>
+      <c r="D466">
+        <v>30.1</v>
       </c>
     </row>
   </sheetData>
@@ -6665,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6681,7 +6857,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -6707,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.1115812917594</v>
+        <v>29.15999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6723,7 +6899,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.21180400890865</v>
+        <v>27.33505376344082</v>
       </c>
     </row>
   </sheetData>
@@ -6845,7 +7021,7 @@
         <v>0.8991555624730961</v>
       </c>
       <c r="D2">
-        <v>0.6862501708485752</v>
+        <v>0.6891917610029233</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6867,7 +7043,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6862501708485752</v>
+        <v>0.6891917610029233</v>
       </c>
       <c r="C4">
         <v>0.769902284654006</v>
@@ -6899,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.818434127567103</v>
+        <v>2.784159317181449</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6915,7 +7091,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.695891613487144</v>
+        <v>3.693207483543241</v>
       </c>
     </row>
   </sheetData>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-З_газ/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-З_газ/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D466"/>
+  <dimension ref="A1:D469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6816,6 +6816,39 @@
       </c>
       <c r="D466">
         <v>30.1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>29.4</v>
+      </c>
+      <c r="D467">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>29.9</v>
+      </c>
+      <c r="D468">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>30.6</v>
+      </c>
+      <c r="D469">
+        <v>30.9</v>
       </c>
     </row>
   </sheetData>
@@ -6841,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6857,7 +6890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -6883,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.15999999999994</v>
+        <v>29.16517094017094</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6891,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.96310904872387</v>
+        <v>27.9631090487239</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6899,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.33505376344082</v>
+        <v>27.35619658119658</v>
       </c>
     </row>
   </sheetData>
@@ -7018,10 +7051,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8991555624730961</v>
+        <v>0.8991555624730975</v>
       </c>
       <c r="D2">
-        <v>0.6891917610029233</v>
+        <v>0.6889072971227113</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7029,13 +7062,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8991555624730961</v>
+        <v>0.8991555624730975</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.769902284654006</v>
+        <v>0.7699022846540075</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7043,10 +7076,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6891917610029233</v>
+        <v>0.6889072971227113</v>
       </c>
       <c r="C4">
-        <v>0.769902284654006</v>
+        <v>0.7699022846540075</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -7075,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.784159317181449</v>
+        <v>2.776230666911325</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7083,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.800225669425347</v>
+        <v>2.800225669425346</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7091,7 +7124,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.693207483543241</v>
+        <v>3.690868420850452</v>
       </c>
     </row>
   </sheetData>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-З_газ/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-З_газ/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D469"/>
+  <dimension ref="A1:D474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6849,6 +6849,61 @@
       </c>
       <c r="D469">
         <v>30.9</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>29.1</v>
+      </c>
+      <c r="D470">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>29.9</v>
+      </c>
+      <c r="D471">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>31.5</v>
+      </c>
+      <c r="D472">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>30</v>
+      </c>
+      <c r="D473">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>30</v>
+      </c>
+      <c r="D474">
+        <v>29.8</v>
       </c>
     </row>
   </sheetData>
@@ -6874,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6890,7 +6945,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -6916,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.16517094017094</v>
+        <v>29.17505285412262</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6932,7 +6987,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.35619658119658</v>
+        <v>27.38794926004229</v>
       </c>
     </row>
   </sheetData>
@@ -7054,7 +7109,7 @@
         <v>0.8991555624730975</v>
       </c>
       <c r="D2">
-        <v>0.6889072971227113</v>
+        <v>0.6891317205933094</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7076,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6889072971227113</v>
+        <v>0.6891317205933094</v>
       </c>
       <c r="C4">
         <v>0.7699022846540075</v>
@@ -7108,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.776230666911325</v>
+        <v>2.764302415940918</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7124,7 +7179,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.690868420850452</v>
+        <v>3.685042289497653</v>
       </c>
     </row>
   </sheetData>
